--- a/data/trans_orig/IP2005-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2005-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{258FFA63-AECE-4878-8AE7-8FC79FAFACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4583856A-D9DE-4AD4-8213-234AE4BB75DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{80D10FA1-21D9-4DDA-BEAA-68B8B1E765DC}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4646DA3A-8C3D-4D28-9F50-5A41799DF90C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,126 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>16,91%</t>
   </si>
   <si>
@@ -101,9 +215,6 @@
     <t>18,36%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>83,09%</t>
   </si>
   <si>
@@ -131,64 +242,61 @@
     <t>87,52%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,114 +356,6 @@
     <t>91,88%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
     <t>11,18%</t>
   </si>
   <si>
@@ -413,6 +413,102 @@
     <t>Menores según si sus dientes estan sanos en 2012 (Tasa respuesta: 92,95%)</t>
   </si>
   <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
     <t>10,1%</t>
   </si>
   <si>
@@ -467,52 +563,52 @@
     <t>91,99%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>6,7%</t>
@@ -563,102 +659,6 @@
     <t>94,63%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
     <t>9,09%</t>
   </si>
   <si>
@@ -704,6 +704,84 @@
     <t>Menores según si sus dientes estan sanos en 2015 (Tasa respuesta: 93,18%)</t>
   </si>
   <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
     <t>7,52%</t>
   </si>
   <si>
@@ -758,46 +836,58 @@
     <t>94,4%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>8,42%</t>
@@ -854,96 +944,6 @@
     <t>94,28%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
     <t>8,81%</t>
   </si>
   <si>
@@ -1001,6 +1001,96 @@
     <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
   </si>
   <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
     <t>10,33%</t>
   </si>
   <si>
@@ -1043,58 +1133,58 @@
     <t>93,11%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>16,04%</t>
@@ -1143,96 +1233,6 @@
   </si>
   <si>
     <t>84,99%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
   </si>
   <si>
     <t>11,89%</t>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDFAF07-8DE4-4C3B-8973-17C089AB4AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4590F76A-9A28-447C-9A9E-465E1F305063}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1790,10 +1790,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>34418</v>
+        <v>1486</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1805,85 +1805,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>24589</v>
+        <v>1858</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3344</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>90</v>
-      </c>
-      <c r="N4" s="7">
-        <v>59008</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20762</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>258</v>
-      </c>
-      <c r="D5" s="7">
-        <v>169093</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20152</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>258</v>
-      </c>
-      <c r="I5" s="7">
-        <v>161195</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>53</v>
+      </c>
+      <c r="N5" s="7">
+        <v>40914</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>516</v>
-      </c>
-      <c r="N5" s="7">
-        <v>330287</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,54 +1892,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>203511</v>
+        <v>22248</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>185784</v>
+        <v>22010</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>606</v>
+        <v>57</v>
       </c>
       <c r="N6" s="7">
-        <v>389295</v>
+        <v>44258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1951,13 +1951,13 @@
         <v>10819</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -1966,13 +1966,13 @@
         <v>9964</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -1981,19 +1981,19 @@
         <v>20784</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>161</v>
@@ -2002,13 +2002,13 @@
         <v>106521</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>140</v>
@@ -2017,13 +2017,13 @@
         <v>94295</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>301</v>
@@ -2032,13 +2032,13 @@
         <v>200815</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,13 +2053,13 @@
         <v>117340</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>156</v>
@@ -2068,13 +2068,13 @@
         <v>104259</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>334</v>
@@ -2083,117 +2083,117 @@
         <v>221599</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>19604</v>
+        <v>34418</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>39</v>
+      </c>
+      <c r="I10" s="7">
+        <v>24589</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>30</v>
-      </c>
-      <c r="I10" s="7">
-        <v>22130</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>90</v>
+      </c>
+      <c r="N10" s="7">
+        <v>59008</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>58</v>
-      </c>
-      <c r="N10" s="7">
-        <v>41733</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>176221</v>
+        <v>169093</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>258</v>
+      </c>
+      <c r="I11" s="7">
+        <v>161195</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>226</v>
-      </c>
-      <c r="I11" s="7">
-        <v>173547</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>516</v>
+      </c>
+      <c r="N11" s="7">
+        <v>330287</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>486</v>
-      </c>
-      <c r="N11" s="7">
-        <v>349769</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,144 +2202,144 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="D12" s="7">
-        <v>195825</v>
+        <v>203511</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="I12" s="7">
-        <v>195677</v>
+        <v>185784</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="N12" s="7">
-        <v>391502</v>
+        <v>389295</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>1486</v>
+        <v>9493</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12455</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1858</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>36</v>
+      </c>
+      <c r="N13" s="7">
+        <v>21948</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3344</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="D14" s="7">
-        <v>20762</v>
+        <v>129849</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>192</v>
+      </c>
+      <c r="I14" s="7">
+        <v>115853</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>26</v>
-      </c>
-      <c r="I14" s="7">
-        <v>20152</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="M14" s="7">
-        <v>53</v>
+        <v>393</v>
       </c>
       <c r="N14" s="7">
-        <v>40914</v>
+        <v>245701</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -2357,49 +2357,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="D15" s="7">
-        <v>22248</v>
+        <v>139342</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="I15" s="7">
-        <v>22010</v>
+        <v>128308</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>57</v>
+        <v>429</v>
       </c>
       <c r="N15" s="7">
-        <v>44258</v>
+        <v>267649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,10 +2410,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>9493</v>
+        <v>19604</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -2425,10 +2425,10 @@
         <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>12455</v>
+        <v>22130</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -2440,10 +2440,10 @@
         <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N16" s="7">
-        <v>21948</v>
+        <v>41733</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
@@ -2458,13 +2458,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="D17" s="7">
-        <v>129849</v>
+        <v>176221</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
@@ -2476,10 +2476,10 @@
         <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="I17" s="7">
-        <v>115853</v>
+        <v>173547</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>99</v>
@@ -2491,10 +2491,10 @@
         <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>393</v>
+        <v>486</v>
       </c>
       <c r="N17" s="7">
-        <v>245701</v>
+        <v>349769</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -2512,49 +2512,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="D18" s="7">
-        <v>139342</v>
+        <v>195825</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="I18" s="7">
-        <v>128308</v>
+        <v>195677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>429</v>
+        <v>544</v>
       </c>
       <c r="N18" s="7">
-        <v>267649</v>
+        <v>391502</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,7 +2613,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>907</v>
@@ -2673,13 +2673,13 @@
         <v>678265</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>950</v>
@@ -2688,13 +2688,13 @@
         <v>636038</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1970</v>
@@ -2703,13 +2703,13 @@
         <v>1314303</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2730,7 +2730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5F7EE5-017A-4BA3-8F8C-B3FB241E938F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60C3E9B-5417-481A-B72A-EA6E9982813D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,10 +2848,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>21427</v>
+        <v>2789</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>124</v>
@@ -2863,10 +2863,10 @@
         <v>126</v>
       </c>
       <c r="H4" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>20107</v>
+        <v>2942</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>127</v>
@@ -2878,10 +2878,10 @@
         <v>129</v>
       </c>
       <c r="M4" s="7">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>41534</v>
+        <v>5731</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>130</v>
@@ -2896,13 +2896,13 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>190658</v>
+        <v>19758</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>133</v>
@@ -2914,10 +2914,10 @@
         <v>135</v>
       </c>
       <c r="H5" s="7">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>170702</v>
+        <v>17855</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>136</v>
@@ -2929,10 +2929,10 @@
         <v>138</v>
       </c>
       <c r="M5" s="7">
-        <v>539</v>
+        <v>43</v>
       </c>
       <c r="N5" s="7">
-        <v>361360</v>
+        <v>37612</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>139</v>
@@ -2950,54 +2950,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>307</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7">
-        <v>212085</v>
+        <v>22547</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>190809</v>
+        <v>20797</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>602</v>
+        <v>49</v>
       </c>
       <c r="N6" s="7">
-        <v>402894</v>
+        <v>43343</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3027,7 +3027,7 @@
         <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>146</v>
@@ -3045,13 +3045,13 @@
         <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>150</v>
@@ -3060,13 +3060,13 @@
         <v>105671</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>142</v>
@@ -3075,13 +3075,13 @@
         <v>101393</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>292</v>
@@ -3090,13 +3090,13 @@
         <v>207064</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3111,13 @@
         <v>118425</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>157</v>
@@ -3126,13 +3126,13 @@
         <v>112371</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>325</v>
@@ -3141,114 +3141,114 @@
         <v>230796</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>13069</v>
+        <v>21427</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>31</v>
+      </c>
+      <c r="I10" s="7">
+        <v>20107</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>15811</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>63</v>
+      </c>
+      <c r="N10" s="7">
+        <v>41534</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="M10" s="7">
-        <v>36</v>
-      </c>
-      <c r="N10" s="7">
-        <v>28881</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="D11" s="7">
-        <v>182032</v>
+        <v>190658</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>264</v>
+      </c>
+      <c r="I11" s="7">
+        <v>170702</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H11" s="7">
-        <v>230</v>
-      </c>
-      <c r="I11" s="7">
-        <v>175868</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>539</v>
+      </c>
+      <c r="N11" s="7">
+        <v>361360</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="M11" s="7">
-        <v>479</v>
-      </c>
-      <c r="N11" s="7">
-        <v>357899</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>173</v>
@@ -3260,63 +3260,63 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="D12" s="7">
-        <v>195101</v>
+        <v>212085</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="I12" s="7">
-        <v>191679</v>
+        <v>190809</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>515</v>
+        <v>602</v>
       </c>
       <c r="N12" s="7">
-        <v>386780</v>
+        <v>402894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>2789</v>
+        <v>13579</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>174</v>
@@ -3325,16 +3325,16 @@
         <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="7">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13987</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2942</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>177</v>
@@ -3343,10 +3343,10 @@
         <v>178</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="N13" s="7">
-        <v>5731</v>
+        <v>27566</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>179</v>
@@ -3361,31 +3361,31 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="D14" s="7">
-        <v>19758</v>
+        <v>137856</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>204</v>
+      </c>
+      <c r="I14" s="7">
+        <v>130671</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="H14" s="7">
-        <v>21</v>
-      </c>
-      <c r="I14" s="7">
-        <v>17855</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>185</v>
@@ -3394,10 +3394,10 @@
         <v>186</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>418</v>
       </c>
       <c r="N14" s="7">
-        <v>37612</v>
+        <v>268527</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>187</v>
@@ -3415,49 +3415,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>22547</v>
+        <v>151435</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>20797</v>
+        <v>144658</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>49</v>
+        <v>460</v>
       </c>
       <c r="N15" s="7">
-        <v>43343</v>
+        <v>296093</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,10 +3468,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>13579</v>
+        <v>13069</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>190</v>
@@ -3480,85 +3480,85 @@
         <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>13987</v>
+        <v>15811</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N16" s="7">
-        <v>27566</v>
+        <v>28881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="D17" s="7">
-        <v>137856</v>
+        <v>182032</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
+        <v>230</v>
+      </c>
+      <c r="I17" s="7">
+        <v>175868</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M17" s="7">
+        <v>479</v>
+      </c>
+      <c r="N17" s="7">
+        <v>357899</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="I17" s="7">
-        <v>130671</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M17" s="7">
-        <v>418</v>
-      </c>
-      <c r="N17" s="7">
-        <v>268527</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>205</v>
@@ -3570,49 +3570,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D18" s="7">
-        <v>151435</v>
+        <v>195101</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>144658</v>
+        <v>191679</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="N18" s="7">
-        <v>296093</v>
+        <v>386780</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3644,7 @@
         <v>63825</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>209</v>
@@ -3662,7 +3662,7 @@
         <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>212</v>
@@ -3671,7 +3671,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>910</v>
@@ -3695,7 +3695,7 @@
         <v>596489</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>216</v>
@@ -3716,7 +3716,7 @@
         <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3731,13 @@
         <v>699593</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>951</v>
@@ -3746,13 +3746,13 @@
         <v>660314</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1951</v>
@@ -3761,13 +3761,13 @@
         <v>1359907</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3788,7 +3788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA137DF2-A450-4E16-B0D5-BA98DEA3FABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC39C8D-6DBC-4DE1-9779-975D40E22980}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3906,100 +3906,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>15802</v>
+        <v>1426</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2933</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="7">
-        <v>22</v>
-      </c>
-      <c r="I4" s="7">
-        <v>14023</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4359</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="M4" s="7">
-        <v>45</v>
-      </c>
-      <c r="N4" s="7">
-        <v>29824</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21353</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>287</v>
-      </c>
-      <c r="D5" s="7">
-        <v>194231</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>18550</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>45</v>
+      </c>
+      <c r="N5" s="7">
+        <v>39903</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="H5" s="7">
-        <v>289</v>
-      </c>
-      <c r="I5" s="7">
-        <v>179840</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M5" s="7">
-        <v>576</v>
-      </c>
-      <c r="N5" s="7">
-        <v>374072</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,54 +4008,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>210033</v>
+        <v>22779</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>311</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>193863</v>
+        <v>21483</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>621</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>403896</v>
+        <v>44262</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4067,13 +4067,13 @@
         <v>12622</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -4082,13 +4082,13 @@
         <v>4925</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4097,19 +4097,19 @@
         <v>17547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>138</v>
@@ -4118,13 +4118,13 @@
         <v>103009</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>141</v>
@@ -4133,13 +4133,13 @@
         <v>97644</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>279</v>
@@ -4148,13 +4148,13 @@
         <v>200653</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4169,13 @@
         <v>115631</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>149</v>
@@ -4184,13 +4184,13 @@
         <v>102569</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>304</v>
@@ -4199,117 +4199,117 @@
         <v>218200</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15802</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" s="7">
         <v>22</v>
       </c>
-      <c r="D10" s="7">
-        <v>16063</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>14023</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M10" s="7">
+        <v>45</v>
+      </c>
+      <c r="N10" s="7">
+        <v>29824</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>14491</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M10" s="7">
-        <v>42</v>
-      </c>
-      <c r="N10" s="7">
-        <v>30553</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="D11" s="7">
-        <v>174618</v>
+        <v>194231</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="7">
+        <v>289</v>
+      </c>
+      <c r="I11" s="7">
+        <v>179840</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M11" s="7">
+        <v>576</v>
+      </c>
+      <c r="N11" s="7">
+        <v>374072</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="H11" s="7">
-        <v>241</v>
-      </c>
-      <c r="I11" s="7">
-        <v>177992</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M11" s="7">
-        <v>487</v>
-      </c>
-      <c r="N11" s="7">
-        <v>352610</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,144 +4318,144 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="D12" s="7">
-        <v>190681</v>
+        <v>210033</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="I12" s="7">
-        <v>192483</v>
+        <v>193863</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>529</v>
+        <v>621</v>
       </c>
       <c r="N12" s="7">
-        <v>383163</v>
+        <v>403896</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>1426</v>
+        <v>15628</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="7">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7">
+        <v>8067</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M13" s="7">
+        <v>35</v>
+      </c>
+      <c r="N13" s="7">
+        <v>23695</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2933</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4359</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="D14" s="7">
-        <v>21353</v>
+        <v>143400</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" s="7">
+        <v>227</v>
+      </c>
+      <c r="I14" s="7">
+        <v>137911</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7">
-        <v>18550</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="M14" s="7">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="N14" s="7">
-        <v>39903</v>
+        <v>281311</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>280</v>
@@ -4473,49 +4473,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>22779</v>
+        <v>159028</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>21483</v>
+        <v>145978</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>50</v>
+        <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>44262</v>
+        <v>305006</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,10 +4526,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>15628</v>
+        <v>16063</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>283</v>
@@ -4541,10 +4541,10 @@
         <v>285</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>8067</v>
+        <v>14491</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>286</v>
@@ -4556,10 +4556,10 @@
         <v>288</v>
       </c>
       <c r="M16" s="7">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N16" s="7">
-        <v>23695</v>
+        <v>30553</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>289</v>
@@ -4574,13 +4574,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="D17" s="7">
-        <v>143400</v>
+        <v>174618</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>292</v>
@@ -4592,10 +4592,10 @@
         <v>294</v>
       </c>
       <c r="H17" s="7">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="I17" s="7">
-        <v>137911</v>
+        <v>177992</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>295</v>
@@ -4607,10 +4607,10 @@
         <v>297</v>
       </c>
       <c r="M17" s="7">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="N17" s="7">
-        <v>281311</v>
+        <v>352610</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>298</v>
@@ -4628,49 +4628,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7">
-        <v>159028</v>
+        <v>190681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="I18" s="7">
-        <v>145978</v>
+        <v>192483</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="N18" s="7">
-        <v>305006</v>
+        <v>383163</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,7 +4729,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>911</v>
@@ -4789,13 +4789,13 @@
         <v>698152</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>985</v>
@@ -4804,13 +4804,13 @@
         <v>656376</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1981</v>
@@ -4819,13 +4819,13 @@
         <v>1354527</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4846,7 +4846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3231F1D-B29A-4F12-9FEC-07768B24834D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA0CF80-4069-4493-804A-4B691D3F20FD}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4964,100 +4964,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>25167</v>
+        <v>636</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>321</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>13674</v>
+        <v>1145</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1782</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" s="7">
-        <v>55</v>
-      </c>
-      <c r="N4" s="7">
-        <v>38842</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>294</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>218540</v>
+        <v>10794</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>15642</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H5" s="7">
-        <v>250</v>
-      </c>
-      <c r="I5" s="7">
-        <v>175142</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>42</v>
+      </c>
+      <c r="N5" s="7">
+        <v>26435</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="M5" s="7">
-        <v>544</v>
-      </c>
-      <c r="N5" s="7">
-        <v>393681</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,54 +5066,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>243707</v>
+        <v>11430</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>188816</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>599</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7">
-        <v>432523</v>
+        <v>28217</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5125,13 +5125,13 @@
         <v>11768</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5140,13 +5140,13 @@
         <v>10739</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -5155,19 +5155,19 @@
         <v>22507</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>131</v>
@@ -5176,13 +5176,13 @@
         <v>100624</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -5191,13 +5191,13 @@
         <v>91348</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>278</v>
@@ -5206,13 +5206,13 @@
         <v>191971</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5227,13 @@
         <v>112392</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -5242,13 +5242,13 @@
         <v>102087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>310</v>
@@ -5257,117 +5257,117 @@
         <v>214478</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>27580</v>
+        <v>25167</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H10" s="7">
+        <v>22</v>
+      </c>
+      <c r="I10" s="7">
+        <v>13674</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="7">
+        <v>55</v>
+      </c>
+      <c r="N10" s="7">
+        <v>38842</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="H10" s="7">
-        <v>49</v>
-      </c>
-      <c r="I10" s="7">
-        <v>36040</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="M10" s="7">
-        <v>86</v>
-      </c>
-      <c r="N10" s="7">
-        <v>63620</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="D11" s="7">
-        <v>144365</v>
+        <v>218540</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="7">
+        <v>250</v>
+      </c>
+      <c r="I11" s="7">
+        <v>175142</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>544</v>
+      </c>
+      <c r="N11" s="7">
+        <v>393681</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="H11" s="7">
-        <v>187</v>
-      </c>
-      <c r="I11" s="7">
-        <v>134007</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M11" s="7">
-        <v>383</v>
-      </c>
-      <c r="N11" s="7">
-        <v>278372</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,153 +5376,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="D12" s="7">
-        <v>171945</v>
+        <v>243707</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>170047</v>
+        <v>188816</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>469</v>
+        <v>599</v>
       </c>
       <c r="N12" s="7">
-        <v>341992</v>
+        <v>432523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>636</v>
+        <v>19436</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="7">
+        <v>29</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19663</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1145</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>58</v>
+      </c>
+      <c r="N13" s="7">
+        <v>39099</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1782</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7">
-        <v>10794</v>
+        <v>152221</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="I14" s="7">
-        <v>15642</v>
+        <v>146618</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
-        <v>42</v>
+        <v>386</v>
       </c>
       <c r="N14" s="7">
-        <v>26435</v>
+        <v>298839</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,49 +5531,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="D15" s="7">
-        <v>11430</v>
+        <v>171657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>166281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="N15" s="7">
-        <v>28217</v>
+        <v>337938</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,79 +5584,79 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>19436</v>
+        <v>27580</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7">
-        <v>19663</v>
+        <v>36040</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="N16" s="7">
-        <v>39099</v>
+        <v>63620</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D17" s="7">
-        <v>152221</v>
+        <v>144365</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I17" s="7">
-        <v>146618</v>
+        <v>134007</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>393</v>
@@ -5665,10 +5665,10 @@
         <v>394</v>
       </c>
       <c r="M17" s="7">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N17" s="7">
-        <v>298839</v>
+        <v>278372</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>395</v>
@@ -5686,49 +5686,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>171657</v>
+        <v>171945</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I18" s="7">
-        <v>166281</v>
+        <v>170047</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N18" s="7">
-        <v>337938</v>
+        <v>341992</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,7 +5763,7 @@
         <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>402</v>
@@ -5787,7 +5787,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>829</v>
@@ -5817,7 +5817,7 @@
         <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>1633</v>
@@ -5847,13 +5847,13 @@
         <v>711131</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>922</v>
@@ -5862,13 +5862,13 @@
         <v>644017</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1867</v>
@@ -5877,13 +5877,13 @@
         <v>1355148</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2005-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2005-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4583856A-D9DE-4AD4-8213-234AE4BB75DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{426A290E-4063-4E37-8B3C-28837E0451F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4646DA3A-8C3D-4D28-9F50-5A41799DF90C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBF0814C-A93C-456B-A0FA-4FA99EEE01EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
   <si>
     <t>Menores según si sus dientes estan sanos en 2007 (Tasa respuesta: 93,63%)</t>
   </si>
@@ -71,6 +71,33 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -80,13 +107,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>23,27%</t>
+    <t>26,42%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>27,98%</t>
+    <t>24,49%</t>
   </si>
   <si>
     <t>7,55%</t>
@@ -95,34 +122,7 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>18,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,1156 +131,1171 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
     <t>9,22%</t>
   </si>
   <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2012 (Tasa respuesta: 92,95%)</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2015 (Tasa respuesta: 93,18%)</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2012 (Tasa respuesta: 92,95%)</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2015 (Tasa respuesta: 93,18%)</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>13,8%</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1306,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1387,39 +1402,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1471,7 +1486,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1582,13 +1597,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1597,6 +1605,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1661,19 +1676,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4590F76A-9A28-447C-9A9E-465E1F305063}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9966D23-1647-490F-BB54-C56C4E78328E}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1790,10 +1825,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>1486</v>
+        <v>20762</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1805,25 +1840,25 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>1858</v>
+        <v>20152</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>3344</v>
+        <v>40914</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1841,10 +1876,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>20762</v>
+        <v>1486</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1856,25 +1891,25 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>20152</v>
+        <v>1858</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>40914</v>
+        <v>3344</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1945,10 +1980,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="D7" s="7">
-        <v>10819</v>
+        <v>106521</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -1960,10 +1995,10 @@
         <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I7" s="7">
-        <v>9964</v>
+        <v>94295</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1975,10 +2010,10 @@
         <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>33</v>
+        <v>301</v>
       </c>
       <c r="N7" s="7">
-        <v>20784</v>
+        <v>200815</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1996,10 +2031,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>106521</v>
+        <v>10819</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -2011,10 +2046,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>94295</v>
+        <v>9964</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -2026,10 +2061,10 @@
         <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>301</v>
+        <v>33</v>
       </c>
       <c r="N8" s="7">
-        <v>200815</v>
+        <v>20784</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -2100,10 +2135,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="D10" s="7">
-        <v>34418</v>
+        <v>169093</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -2115,10 +2150,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="I10" s="7">
-        <v>24589</v>
+        <v>161195</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -2130,10 +2165,10 @@
         <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>90</v>
+        <v>516</v>
       </c>
       <c r="N10" s="7">
-        <v>59008</v>
+        <v>330287</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -2151,10 +2186,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7">
-        <v>169093</v>
+        <v>34418</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -2166,10 +2201,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>161195</v>
+        <v>24589</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -2181,10 +2216,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>516</v>
+        <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>330287</v>
+        <v>59008</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -2255,10 +2290,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="D13" s="7">
-        <v>9493</v>
+        <v>129849</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -2270,10 +2305,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="I13" s="7">
-        <v>12455</v>
+        <v>115853</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -2285,10 +2320,10 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>393</v>
       </c>
       <c r="N13" s="7">
-        <v>21948</v>
+        <v>245701</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -2306,10 +2341,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>129849</v>
+        <v>9493</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -2321,10 +2356,10 @@
         <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
-        <v>115853</v>
+        <v>12455</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -2336,10 +2371,10 @@
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>393</v>
+        <v>36</v>
       </c>
       <c r="N14" s="7">
-        <v>245701</v>
+        <v>21948</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -2410,10 +2445,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="D16" s="7">
-        <v>19604</v>
+        <v>176221</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -2425,10 +2460,10 @@
         <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="I16" s="7">
-        <v>22130</v>
+        <v>173547</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -2440,10 +2475,10 @@
         <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>58</v>
+        <v>486</v>
       </c>
       <c r="N16" s="7">
-        <v>41733</v>
+        <v>349769</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
@@ -2461,10 +2496,10 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>176221</v>
+        <v>19604</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
@@ -2476,10 +2511,10 @@
         <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>173547</v>
+        <v>22130</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>99</v>
@@ -2491,10 +2526,10 @@
         <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>486</v>
+        <v>58</v>
       </c>
       <c r="N17" s="7">
-        <v>349769</v>
+        <v>41733</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -2565,10 +2600,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>113</v>
+        <v>907</v>
       </c>
       <c r="D19" s="7">
-        <v>75820</v>
+        <v>602445</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>105</v>
@@ -2580,10 +2615,10 @@
         <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>108</v>
+        <v>842</v>
       </c>
       <c r="I19" s="7">
-        <v>70996</v>
+        <v>565042</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>108</v>
@@ -2595,10 +2630,10 @@
         <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>221</v>
+        <v>1749</v>
       </c>
       <c r="N19" s="7">
-        <v>146816</v>
+        <v>1167487</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>111</v>
@@ -2616,10 +2651,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>907</v>
+        <v>113</v>
       </c>
       <c r="D20" s="7">
-        <v>602445</v>
+        <v>75820</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>114</v>
@@ -2631,10 +2666,10 @@
         <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>842</v>
+        <v>108</v>
       </c>
       <c r="I20" s="7">
-        <v>565042</v>
+        <v>70996</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>117</v>
@@ -2646,10 +2681,10 @@
         <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>1749</v>
+        <v>221</v>
       </c>
       <c r="N20" s="7">
-        <v>1167487</v>
+        <v>146816</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>120</v>
@@ -2710,6 +2745,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2730,8 +2770,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60C3E9B-5417-481A-B72A-EA6E9982813D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418F02A0-C669-455C-AC21-A7178CB550B8}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2747,7 +2787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2848,49 +2888,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>2789</v>
+        <v>19758</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>2942</v>
+        <v>17855</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="N4" s="7">
-        <v>5731</v>
+        <v>37612</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,49 +2939,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>19758</v>
+        <v>2789</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>17855</v>
+        <v>2942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>37612</v>
+        <v>5731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,49 +3043,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="D7" s="7">
-        <v>12754</v>
+        <v>105671</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="7">
         <v>142</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="7">
-        <v>15</v>
-      </c>
       <c r="I7" s="7">
-        <v>10978</v>
+        <v>101393</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="N7" s="7">
-        <v>23732</v>
+        <v>207064</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,49 +3094,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>105671</v>
+        <v>12754</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>101393</v>
+        <v>10978</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="N8" s="7">
-        <v>207064</v>
+        <v>23732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,49 +3198,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="D10" s="7">
-        <v>21427</v>
+        <v>190658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="I10" s="7">
-        <v>20107</v>
+        <v>170702</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
-        <v>63</v>
+        <v>539</v>
       </c>
       <c r="N10" s="7">
-        <v>41534</v>
+        <v>361360</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,49 +3249,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>275</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>190658</v>
+        <v>21427</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>170702</v>
+        <v>20107</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
-        <v>539</v>
+        <v>63</v>
       </c>
       <c r="N11" s="7">
-        <v>361360</v>
+        <v>41534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,49 +3353,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="D13" s="7">
-        <v>13579</v>
+        <v>137856</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="I13" s="7">
-        <v>13987</v>
+        <v>130671</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>418</v>
       </c>
       <c r="N13" s="7">
-        <v>27566</v>
+        <v>268527</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,49 +3404,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>137856</v>
+        <v>13579</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
-        <v>130671</v>
+        <v>13987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
-        <v>418</v>
+        <v>42</v>
       </c>
       <c r="N14" s="7">
-        <v>268527</v>
+        <v>27566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,49 +3508,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="D16" s="7">
-        <v>13069</v>
+        <v>182032</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="I16" s="7">
-        <v>15811</v>
+        <v>175868</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
-        <v>36</v>
+        <v>479</v>
       </c>
       <c r="N16" s="7">
-        <v>28881</v>
+        <v>357899</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,49 +3559,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>182032</v>
+        <v>13069</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>175868</v>
+        <v>15811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
-        <v>479</v>
+        <v>36</v>
       </c>
       <c r="N17" s="7">
-        <v>357899</v>
+        <v>28881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,49 +3663,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>90</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>63619</v>
+        <v>635974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="H19" s="7">
-        <v>90</v>
+        <v>861</v>
       </c>
       <c r="I19" s="7">
-        <v>63825</v>
+        <v>596489</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
-        <v>180</v>
+        <v>1771</v>
       </c>
       <c r="N19" s="7">
-        <v>127444</v>
+        <v>1232463</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,49 +3714,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>910</v>
+        <v>90</v>
       </c>
       <c r="D20" s="7">
-        <v>635974</v>
+        <v>63619</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
-        <v>861</v>
+        <v>90</v>
       </c>
       <c r="I20" s="7">
-        <v>596489</v>
+        <v>63825</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
-        <v>1771</v>
+        <v>180</v>
       </c>
       <c r="N20" s="7">
-        <v>1232463</v>
+        <v>127444</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,6 +3808,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3788,8 +3833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC39C8D-6DBC-4DE1-9779-975D40E22980}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3235C9D0-2A09-4AE2-B27F-4E9A502A0E01}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3805,7 +3850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3906,49 +3951,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>1426</v>
+        <v>21353</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>2933</v>
+        <v>18550</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>4359</v>
+        <v>39903</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,49 +4002,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>21353</v>
+        <v>1426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>18550</v>
+        <v>2933</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>39903</v>
+        <v>4359</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,49 +4106,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="D7" s="7">
-        <v>12622</v>
+        <v>103009</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="I7" s="7">
-        <v>4925</v>
+        <v>97644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="N7" s="7">
-        <v>17547</v>
+        <v>200654</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,49 +4157,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>103009</v>
+        <v>12622</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>97644</v>
+        <v>4925</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>200653</v>
+        <v>17547</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,7 +4241,7 @@
         <v>304</v>
       </c>
       <c r="N9" s="7">
-        <v>218200</v>
+        <v>218201</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -4216,49 +4261,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c r="D10" s="7">
-        <v>15802</v>
+        <v>194231</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="I10" s="7">
-        <v>14023</v>
+        <v>179840</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
-        <v>45</v>
+        <v>576</v>
       </c>
       <c r="N10" s="7">
-        <v>29824</v>
+        <v>374072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,49 +4312,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>287</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>194231</v>
+        <v>15802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>179840</v>
+        <v>14023</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
-        <v>576</v>
+        <v>45</v>
       </c>
       <c r="N11" s="7">
-        <v>374072</v>
+        <v>29824</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,49 +4416,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="D13" s="7">
-        <v>15628</v>
+        <v>143400</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="I13" s="7">
-        <v>8067</v>
+        <v>137911</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>442</v>
       </c>
       <c r="N13" s="7">
-        <v>23695</v>
+        <v>281311</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,49 +4467,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>143400</v>
+        <v>15628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>137911</v>
+        <v>8067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
-        <v>442</v>
+        <v>35</v>
       </c>
       <c r="N14" s="7">
-        <v>281311</v>
+        <v>23695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,49 +4571,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="D16" s="7">
-        <v>16063</v>
+        <v>174618</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="I16" s="7">
-        <v>14491</v>
+        <v>177992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="N16" s="7">
-        <v>30553</v>
+        <v>352610</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,49 +4622,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>174618</v>
+        <v>16063</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>177992</v>
+        <v>14491</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
-        <v>487</v>
+        <v>42</v>
       </c>
       <c r="N17" s="7">
-        <v>352610</v>
+        <v>30553</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,49 +4726,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>85</v>
+        <v>911</v>
       </c>
       <c r="D19" s="7">
-        <v>61540</v>
+        <v>636612</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
-        <v>67</v>
+        <v>918</v>
       </c>
       <c r="I19" s="7">
-        <v>44439</v>
+        <v>611937</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
-        <v>152</v>
+        <v>1829</v>
       </c>
       <c r="N19" s="7">
-        <v>105979</v>
+        <v>1248548</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,49 +4777,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>911</v>
+        <v>85</v>
       </c>
       <c r="D20" s="7">
-        <v>636612</v>
+        <v>61540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
-        <v>918</v>
+        <v>67</v>
       </c>
       <c r="I20" s="7">
-        <v>611937</v>
+        <v>44439</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
-        <v>1829</v>
+        <v>152</v>
       </c>
       <c r="N20" s="7">
-        <v>1248548</v>
+        <v>105979</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,6 +4871,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4846,8 +4896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA0CF80-4069-4493-804A-4B691D3F20FD}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2059966-442A-4C70-82A7-292FEF257FDE}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4863,7 +4913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4964,49 +5014,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>636</v>
+        <v>10794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>1145</v>
+        <v>15642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>1782</v>
+        <v>26435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,49 +5065,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>10794</v>
+        <v>636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>15642</v>
+        <v>1145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>26435</v>
+        <v>1782</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,49 +5169,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="D7" s="7">
-        <v>11768</v>
+        <v>100624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I7" s="7">
-        <v>10739</v>
+        <v>91348</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
-        <v>32</v>
+        <v>278</v>
       </c>
       <c r="N7" s="7">
-        <v>22507</v>
+        <v>191971</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,49 +5220,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>100624</v>
+        <v>11768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>91348</v>
+        <v>10739</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
-        <v>278</v>
+        <v>32</v>
       </c>
       <c r="N8" s="7">
-        <v>191971</v>
+        <v>22507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,49 +5324,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="D10" s="7">
-        <v>25167</v>
+        <v>218540</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="I10" s="7">
-        <v>13674</v>
+        <v>175142</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="M10" s="7">
-        <v>55</v>
+        <v>544</v>
       </c>
       <c r="N10" s="7">
-        <v>38842</v>
+        <v>393681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,49 +5375,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>218540</v>
+        <v>25167</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>175142</v>
+        <v>13674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
-        <v>544</v>
+        <v>55</v>
       </c>
       <c r="N11" s="7">
-        <v>393681</v>
+        <v>38842</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,49 +5479,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="D13" s="7">
-        <v>19436</v>
+        <v>152221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="I13" s="7">
-        <v>19663</v>
+        <v>146618</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>386</v>
       </c>
       <c r="N13" s="7">
-        <v>39099</v>
+        <v>298839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,49 +5530,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>152221</v>
+        <v>19436</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>146618</v>
+        <v>19663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
-        <v>386</v>
+        <v>58</v>
       </c>
       <c r="N14" s="7">
-        <v>298839</v>
+        <v>39099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,49 +5634,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="D16" s="7">
-        <v>27580</v>
+        <v>144365</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>187</v>
+      </c>
+      <c r="I16" s="7">
+        <v>134007</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="M16" s="7">
         <v>383</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H16" s="7">
-        <v>49</v>
-      </c>
-      <c r="I16" s="7">
-        <v>36040</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="M16" s="7">
-        <v>86</v>
-      </c>
       <c r="N16" s="7">
-        <v>63620</v>
+        <v>278372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,49 +5685,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>144365</v>
+        <v>27580</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>134007</v>
+        <v>36040</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
-        <v>383</v>
+        <v>86</v>
       </c>
       <c r="N17" s="7">
-        <v>278372</v>
+        <v>63620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,49 +5789,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>116</v>
+        <v>829</v>
       </c>
       <c r="D19" s="7">
-        <v>84588</v>
+        <v>626543</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
-        <v>118</v>
+        <v>804</v>
       </c>
       <c r="I19" s="7">
-        <v>81261</v>
+        <v>562756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
-        <v>234</v>
+        <v>1633</v>
       </c>
       <c r="N19" s="7">
-        <v>165849</v>
+        <v>1189299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,49 +5840,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>829</v>
+        <v>116</v>
       </c>
       <c r="D20" s="7">
-        <v>626543</v>
+        <v>84588</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
-        <v>804</v>
+        <v>118</v>
       </c>
       <c r="I20" s="7">
-        <v>562756</v>
+        <v>81261</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
-        <v>1633</v>
+        <v>234</v>
       </c>
       <c r="N20" s="7">
-        <v>1189299</v>
+        <v>165849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,6 +5934,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2005-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2005-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{426A290E-4063-4E37-8B3C-28837E0451F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{418D55B5-30F6-46BC-BF0C-ADAEA84CF689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBF0814C-A93C-456B-A0FA-4FA99EEE01EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2569AD72-8BB0-4854-95E4-36EA3BFE00AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
   <si>
     <t>Menores según si sus dientes estan sanos en 2007 (Tasa respuesta: 93,63%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,7 +77,7 @@
     <t>93,32%</t>
   </si>
   <si>
-    <t>73,58%</t>
+    <t>78,47%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,16 +86,16 @@
     <t>91,56%</t>
   </si>
   <si>
-    <t>75,51%</t>
+    <t>72,22%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,196 +107,196 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>26,42%</t>
+    <t>21,53%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>24,49%</t>
+    <t>27,78%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>90,78%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>90,62%</t>
   </si>
   <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>83,09%</t>
   </si>
   <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>84,84%</t>
   </si>
   <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
   </si>
   <si>
     <t>16,91%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>15,16%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>90,29%</t>
   </si>
   <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,109 +305,103 @@
     <t>89,99%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>88,69%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>90,76%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>9,24%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -419,865 +413,901 @@
     <t>87,63%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>85,85%</t>
   </si>
   <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>86,78%</t>
   </si>
   <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>89,72%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>89,9%</t>
   </si>
   <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>89,46%</t>
   </si>
   <si>
-    <t>85,4%</t>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>92,52%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2016 (Tasa respuesta: 93,18%)</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2015 (Tasa respuesta: 93,18%)</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>16,86%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
   </si>
   <si>
     <t>83,96%</t>
   </si>
   <si>
-    <t>78,89%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>72,97%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>21,11%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
+    <t>27,03%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>12,62%</t>
@@ -1286,16 +1316,10 @@
     <t>10,46%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9966D23-1647-490F-BB54-C56C4E78328E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B3131B-B852-4946-BE1C-6CB1CA5466EB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2624,10 +2648,10 @@
         <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1749</v>
@@ -2636,13 +2660,13 @@
         <v>1167487</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2681,13 @@
         <v>75820</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>108</v>
@@ -2672,13 +2696,13 @@
         <v>70996</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="M20" s="7">
         <v>221</v>
@@ -2687,13 +2711,13 @@
         <v>146816</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,7 +2773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418F02A0-C669-455C-AC21-A7178CB550B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B688FF2-4817-4668-B6B2-2CEBDA471A0A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2787,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2894,13 +2918,13 @@
         <v>19758</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -2909,13 +2933,13 @@
         <v>17855</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -2924,13 +2948,13 @@
         <v>37612</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2969,13 @@
         <v>2789</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2960,13 +2984,13 @@
         <v>2942</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2975,13 +2999,13 @@
         <v>5731</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3073,13 @@
         <v>105671</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -3064,13 +3088,13 @@
         <v>101393</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>292</v>
@@ -3079,13 +3103,13 @@
         <v>207064</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3124,13 @@
         <v>12754</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3115,13 +3139,13 @@
         <v>10978</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -3130,13 +3154,13 @@
         <v>23732</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3228,13 @@
         <v>190658</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>264</v>
@@ -3219,13 +3243,13 @@
         <v>170702</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>539</v>
@@ -3234,13 +3258,13 @@
         <v>361360</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3279,13 @@
         <v>21427</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -3270,13 +3294,13 @@
         <v>20107</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -3285,13 +3309,13 @@
         <v>41534</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3383,13 @@
         <v>137856</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -3374,13 +3398,13 @@
         <v>130671</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>418</v>
@@ -3389,13 +3413,13 @@
         <v>268527</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3434,13 @@
         <v>13579</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -3425,13 +3449,13 @@
         <v>13987</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -3440,13 +3464,13 @@
         <v>27566</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3538,13 @@
         <v>182032</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>230</v>
@@ -3529,13 +3553,13 @@
         <v>175868</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>479</v>
@@ -3544,13 +3568,13 @@
         <v>357899</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3589,13 @@
         <v>13069</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -3580,13 +3604,13 @@
         <v>15811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -3595,13 +3619,13 @@
         <v>28881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3693,13 @@
         <v>635974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>861</v>
@@ -3684,13 +3708,13 @@
         <v>596489</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>1771</v>
@@ -3699,13 +3723,13 @@
         <v>1232463</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3744,13 @@
         <v>63619</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -3735,13 +3759,13 @@
         <v>63825</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>180</v>
@@ -3750,13 +3774,13 @@
         <v>127444</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3235C9D0-2A09-4AE2-B27F-4E9A502A0E01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EA6FEA-3D9D-4A1B-81AA-0D100A047F79}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3850,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,10 +3981,10 @@
         <v>21353</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3972,13 +3996,13 @@
         <v>18550</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -3987,13 +4011,13 @@
         <v>39903</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4032,13 @@
         <v>1426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4023,13 +4047,13 @@
         <v>2933</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4038,13 +4062,13 @@
         <v>4359</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4136,13 @@
         <v>103009</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -4127,13 +4151,13 @@
         <v>97644</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>279</v>
@@ -4142,13 +4166,13 @@
         <v>200654</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4187,13 @@
         <v>12622</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -4178,13 +4202,13 @@
         <v>4925</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -4193,13 +4217,13 @@
         <v>17547</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4291,13 @@
         <v>194231</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>289</v>
@@ -4282,13 +4306,13 @@
         <v>179840</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>576</v>
@@ -4297,13 +4321,13 @@
         <v>374072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4342,13 @@
         <v>15802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -4333,13 +4357,13 @@
         <v>14023</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -4348,13 +4372,13 @@
         <v>29824</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4446,13 @@
         <v>143400</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>227</v>
@@ -4437,13 +4461,13 @@
         <v>137911</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>442</v>
@@ -4452,13 +4476,13 @@
         <v>281311</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4497,13 @@
         <v>15628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4488,13 +4512,13 @@
         <v>8067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -4503,13 +4527,13 @@
         <v>23695</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4601,13 @@
         <v>174618</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>241</v>
@@ -4592,13 +4616,13 @@
         <v>177992</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>487</v>
@@ -4607,13 +4631,13 @@
         <v>352610</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4652,13 @@
         <v>16063</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4643,13 +4667,13 @@
         <v>14491</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -4658,13 +4682,13 @@
         <v>30553</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,7 +4777,7 @@
         <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>1829</v>
@@ -4762,13 +4786,13 @@
         <v>1248548</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4807,13 @@
         <v>61540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -4798,13 +4822,13 @@
         <v>44439</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>152</v>
@@ -4813,13 +4837,13 @@
         <v>105979</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,7 +4899,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4896,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2059966-442A-4C70-82A7-292FEF257FDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79532FA2-3C9C-43F0-AAD7-AE0B62FE3001}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4913,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5020,10 +5044,10 @@
         <v>10794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -5035,10 +5059,10 @@
         <v>15642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -5050,13 +5074,13 @@
         <v>26435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5095,13 @@
         <v>636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5086,13 +5110,13 @@
         <v>1145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5101,13 +5125,13 @@
         <v>1782</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5199,13 @@
         <v>100624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
@@ -5190,13 +5214,13 @@
         <v>91348</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>278</v>
@@ -5205,13 +5229,13 @@
         <v>191971</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5250,13 @@
         <v>11768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5241,13 +5265,13 @@
         <v>10739</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -5256,13 +5280,13 @@
         <v>22507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5354,13 @@
         <v>218540</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>250</v>
@@ -5345,13 +5369,13 @@
         <v>175142</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>544</v>
@@ -5360,13 +5384,13 @@
         <v>393681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5405,13 @@
         <v>25167</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -5396,13 +5420,13 @@
         <v>13674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -5411,13 +5435,13 @@
         <v>38842</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5509,13 @@
         <v>152221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -5500,13 +5524,13 @@
         <v>146618</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>386</v>
@@ -5515,13 +5539,13 @@
         <v>298839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5560,13 @@
         <v>19436</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -5551,13 +5575,13 @@
         <v>19663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5566,13 +5590,13 @@
         <v>39099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5664,13 @@
         <v>144365</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
@@ -5655,13 +5679,13 @@
         <v>134007</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>383</v>
@@ -5670,13 +5694,13 @@
         <v>278372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5715,13 @@
         <v>27580</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5706,13 +5730,13 @@
         <v>36040</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -5721,13 +5745,13 @@
         <v>63620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5819,13 @@
         <v>626543</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="H19" s="7">
         <v>804</v>
@@ -5810,13 +5834,13 @@
         <v>562756</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>1633</v>
@@ -5825,13 +5849,13 @@
         <v>1189299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5870,13 @@
         <v>84588</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>118</v>
@@ -5861,13 +5885,13 @@
         <v>81261</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>234</v>
@@ -5876,13 +5900,13 @@
         <v>165849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>65</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,7 +5962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2005-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2005-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418D55B5-30F6-46BC-BF0C-ADAEA84CF689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7358B47-7191-4997-A345-8463691694B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2569AD72-8BB0-4854-95E4-36EA3BFE00AF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{669DECE3-C684-47E0-A89D-CE8F4E4804F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="360">
   <si>
     <t>Menores según si sus dientes estan sanos en 2007 (Tasa respuesta: 93,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1258 +68,1057 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2012 (Tasa respuesta: 92,95%)</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
   </si>
   <si>
     <t>93,61%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2012 (Tasa respuesta: 92,95%)</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2016 (Tasa respuesta: 93,18%)</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2016 (Tasa respuesta: 93,18%)</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
 </sst>
 </file>
@@ -1731,8 +1530,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B3131B-B852-4946-BE1C-6CB1CA5466EB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF4D293-1AD5-4F45-83E7-FF311F4CC098}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1849,10 +1648,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="D4" s="7">
-        <v>20762</v>
+        <v>114446</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1864,10 +1663,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="I4" s="7">
-        <v>20152</v>
+        <v>127283</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1876,73 +1675,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>354</v>
       </c>
       <c r="N4" s="7">
-        <v>40914</v>
+        <v>241729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11822</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1486</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
       <c r="I5" s="7">
-        <v>1858</v>
+        <v>12305</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="N5" s="7">
-        <v>3344</v>
+        <v>24127</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,153 +1750,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="D6" s="7">
-        <v>22248</v>
+        <v>126268</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>22010</v>
+        <v>139588</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>57</v>
+        <v>391</v>
       </c>
       <c r="N6" s="7">
-        <v>44258</v>
+        <v>265856</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="D7" s="7">
-        <v>106521</v>
+        <v>161195</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="I7" s="7">
-        <v>94295</v>
+        <v>169093</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>301</v>
+        <v>516</v>
       </c>
       <c r="N7" s="7">
-        <v>200815</v>
+        <v>330287</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>10819</v>
+        <v>24589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I8" s="7">
-        <v>9964</v>
+        <v>34418</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="N8" s="7">
-        <v>20784</v>
+        <v>59008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,153 +1905,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>178</v>
+        <v>297</v>
       </c>
       <c r="D9" s="7">
-        <v>117340</v>
+        <v>185784</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="I9" s="7">
-        <v>104259</v>
+        <v>203511</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>334</v>
+        <v>606</v>
       </c>
       <c r="N9" s="7">
-        <v>221599</v>
+        <v>389295</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="D10" s="7">
-        <v>169093</v>
+        <v>115853</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="I10" s="7">
-        <v>161195</v>
+        <v>129849</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>516</v>
+        <v>393</v>
       </c>
       <c r="N10" s="7">
-        <v>330287</v>
+        <v>245701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>34418</v>
+        <v>12455</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>24589</v>
+        <v>9493</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="N11" s="7">
-        <v>59008</v>
+        <v>21948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,153 +2060,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>309</v>
+        <v>213</v>
       </c>
       <c r="D12" s="7">
-        <v>203511</v>
+        <v>128308</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="I12" s="7">
-        <v>185784</v>
+        <v>139342</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>606</v>
+        <v>429</v>
       </c>
       <c r="N12" s="7">
-        <v>389295</v>
+        <v>267649</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="D13" s="7">
-        <v>129849</v>
+        <v>173547</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="I13" s="7">
-        <v>115853</v>
+        <v>176221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>393</v>
+        <v>486</v>
       </c>
       <c r="N13" s="7">
-        <v>245701</v>
+        <v>349769</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>9493</v>
+        <v>22130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>12455</v>
+        <v>19604</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N14" s="7">
-        <v>21948</v>
+        <v>41733</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,153 +2215,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="D15" s="7">
-        <v>139342</v>
+        <v>195677</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="I15" s="7">
-        <v>128308</v>
+        <v>195825</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>429</v>
+        <v>544</v>
       </c>
       <c r="N15" s="7">
-        <v>267649</v>
+        <v>391502</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>260</v>
+        <v>842</v>
       </c>
       <c r="D16" s="7">
-        <v>176221</v>
+        <v>565042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>226</v>
+        <v>907</v>
       </c>
       <c r="I16" s="7">
-        <v>173547</v>
+        <v>602445</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>486</v>
+        <v>1749</v>
       </c>
       <c r="N16" s="7">
-        <v>349769</v>
+        <v>1167487</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="D17" s="7">
-        <v>19604</v>
+        <v>70996</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="I17" s="7">
-        <v>22130</v>
+        <v>75820</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="N17" s="7">
-        <v>41733</v>
+        <v>146816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,217 +2370,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>288</v>
+        <v>950</v>
       </c>
       <c r="D18" s="7">
-        <v>195825</v>
+        <v>636038</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>256</v>
+        <v>1020</v>
       </c>
       <c r="I18" s="7">
-        <v>195677</v>
+        <v>678265</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>544</v>
+        <v>1970</v>
       </c>
       <c r="N18" s="7">
-        <v>391502</v>
+        <v>1314303</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>907</v>
-      </c>
-      <c r="D19" s="7">
-        <v>602445</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>842</v>
-      </c>
-      <c r="I19" s="7">
-        <v>565042</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1749</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1167487</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>113</v>
-      </c>
-      <c r="D20" s="7">
-        <v>75820</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>108</v>
-      </c>
-      <c r="I20" s="7">
-        <v>70996</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="7">
-        <v>221</v>
-      </c>
-      <c r="N20" s="7">
-        <v>146816</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1020</v>
-      </c>
-      <c r="D21" s="7">
-        <v>678265</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>950</v>
-      </c>
-      <c r="I21" s="7">
-        <v>636038</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1970</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1314303</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2794,8 +2437,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B688FF2-4817-4668-B6B2-2CEBDA471A0A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B676A79-435F-440B-9E74-11351DC85985}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2811,7 +2454,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2912,100 +2555,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="D4" s="7">
-        <v>19758</v>
+        <v>119248</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="I4" s="7">
-        <v>17855</v>
+        <v>125429</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>335</v>
       </c>
       <c r="N4" s="7">
-        <v>37612</v>
+        <v>244676</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>2789</v>
+        <v>13920</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>2942</v>
+        <v>15543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>5731</v>
+        <v>29464</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,153 +2657,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="D6" s="7">
-        <v>22547</v>
+        <v>133168</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="I6" s="7">
-        <v>20797</v>
+        <v>140972</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>49</v>
+        <v>374</v>
       </c>
       <c r="N6" s="7">
-        <v>43343</v>
+        <v>274140</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="D7" s="7">
-        <v>105671</v>
+        <v>170702</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>142</v>
+        <v>275</v>
       </c>
       <c r="I7" s="7">
-        <v>101393</v>
+        <v>190658</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>292</v>
+        <v>539</v>
       </c>
       <c r="N7" s="7">
-        <v>207064</v>
+        <v>361360</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>12754</v>
+        <v>20107</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>10978</v>
+        <v>21427</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N8" s="7">
-        <v>23732</v>
+        <v>41534</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,153 +2812,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="D9" s="7">
-        <v>118425</v>
+        <v>190809</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>112371</v>
+        <v>212085</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>325</v>
+        <v>602</v>
       </c>
       <c r="N9" s="7">
-        <v>230796</v>
+        <v>402894</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="D10" s="7">
-        <v>190658</v>
+        <v>130671</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="I10" s="7">
-        <v>170702</v>
+        <v>137856</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
-        <v>539</v>
+        <v>418</v>
       </c>
       <c r="N10" s="7">
-        <v>361360</v>
+        <v>268527</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>21427</v>
+        <v>13987</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>20107</v>
+        <v>13579</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="N11" s="7">
-        <v>41534</v>
+        <v>27566</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,153 +2967,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>212085</v>
+        <v>144658</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="I12" s="7">
-        <v>190809</v>
+        <v>151435</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>602</v>
+        <v>460</v>
       </c>
       <c r="N12" s="7">
-        <v>402894</v>
+        <v>296093</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D13" s="7">
-        <v>137856</v>
+        <v>175868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7">
-        <v>130671</v>
+        <v>182032</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="N13" s="7">
-        <v>268527</v>
+        <v>357899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>13579</v>
+        <v>15811</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>13987</v>
+        <v>13069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N14" s="7">
-        <v>27566</v>
+        <v>28881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,153 +3122,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D15" s="7">
-        <v>151435</v>
+        <v>191679</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="I15" s="7">
-        <v>144658</v>
+        <v>195101</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="N15" s="7">
-        <v>296093</v>
+        <v>386780</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>249</v>
+        <v>861</v>
       </c>
       <c r="D16" s="7">
-        <v>182032</v>
+        <v>596489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
-        <v>230</v>
+        <v>910</v>
       </c>
       <c r="I16" s="7">
-        <v>175868</v>
+        <v>635974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
-        <v>479</v>
+        <v>1771</v>
       </c>
       <c r="N16" s="7">
-        <v>357899</v>
+        <v>1232463</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7">
-        <v>13069</v>
+        <v>63825</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>15811</v>
+        <v>63619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="N17" s="7">
-        <v>28881</v>
+        <v>127444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,217 +3277,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>265</v>
+        <v>951</v>
       </c>
       <c r="D18" s="7">
-        <v>195101</v>
+        <v>660314</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>191679</v>
+        <v>699593</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>515</v>
+        <v>1951</v>
       </c>
       <c r="N18" s="7">
-        <v>386780</v>
+        <v>1359907</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>910</v>
-      </c>
-      <c r="D19" s="7">
-        <v>635974</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>861</v>
-      </c>
-      <c r="I19" s="7">
-        <v>596489</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1771</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1232463</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>90</v>
-      </c>
-      <c r="D20" s="7">
-        <v>63619</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="7">
-        <v>90</v>
-      </c>
-      <c r="I20" s="7">
-        <v>63825</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>180</v>
-      </c>
-      <c r="N20" s="7">
-        <v>127444</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="7">
-        <v>699593</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>951</v>
-      </c>
-      <c r="I21" s="7">
-        <v>660314</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1951</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1359907</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3857,8 +3344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EA6FEA-3D9D-4A1B-81AA-0D100A047F79}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF8D666-6347-45F9-BAB4-8D8C49EFD765}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3874,7 +3361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3975,100 +3462,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="D4" s="7">
-        <v>21353</v>
+        <v>116194</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="I4" s="7">
-        <v>18550</v>
+        <v>124362</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="N4" s="7">
-        <v>39903</v>
+        <v>240556</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7858</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="7">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1426</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
       <c r="I5" s="7">
-        <v>2933</v>
+        <v>14048</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N5" s="7">
-        <v>4359</v>
+        <v>21906</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,153 +3564,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>22779</v>
+        <v>124052</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="I6" s="7">
-        <v>21483</v>
+        <v>138410</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>50</v>
+        <v>354</v>
       </c>
       <c r="N6" s="7">
-        <v>44262</v>
+        <v>262462</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>138</v>
+        <v>289</v>
       </c>
       <c r="D7" s="7">
-        <v>103009</v>
+        <v>179840</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c r="I7" s="7">
-        <v>97644</v>
+        <v>194231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
-        <v>279</v>
+        <v>576</v>
       </c>
       <c r="N7" s="7">
-        <v>200654</v>
+        <v>374072</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>12622</v>
+        <v>14023</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>4925</v>
+        <v>15802</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N8" s="7">
-        <v>17547</v>
+        <v>29824</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,153 +3719,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>155</v>
+        <v>311</v>
       </c>
       <c r="D9" s="7">
-        <v>115631</v>
+        <v>193863</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="I9" s="7">
-        <v>102569</v>
+        <v>210033</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>304</v>
+        <v>621</v>
       </c>
       <c r="N9" s="7">
-        <v>218201</v>
+        <v>403896</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="D10" s="7">
-        <v>194231</v>
+        <v>137911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="I10" s="7">
-        <v>179840</v>
+        <v>143400</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
-        <v>576</v>
+        <v>442</v>
       </c>
       <c r="N10" s="7">
-        <v>374072</v>
+        <v>281311</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>15802</v>
+        <v>8067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>14023</v>
+        <v>15628</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N11" s="7">
-        <v>29824</v>
+        <v>23695</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,153 +3874,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>210033</v>
+        <v>145978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>193863</v>
+        <v>159028</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>621</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>403896</v>
+        <v>305006</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="D13" s="7">
-        <v>143400</v>
+        <v>177992</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="I13" s="7">
-        <v>137911</v>
+        <v>174618</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="N13" s="7">
-        <v>281311</v>
+        <v>352610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>15628</v>
+        <v>14491</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>8067</v>
+        <v>16063</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N14" s="7">
-        <v>23695</v>
+        <v>30553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,153 +4029,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="D15" s="7">
-        <v>159028</v>
+        <v>192483</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="I15" s="7">
-        <v>145978</v>
+        <v>190681</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="N15" s="7">
-        <v>305006</v>
+        <v>383163</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>246</v>
+        <v>918</v>
       </c>
       <c r="D16" s="7">
-        <v>174618</v>
+        <v>611937</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>241</v>
+        <v>911</v>
       </c>
       <c r="I16" s="7">
-        <v>177992</v>
+        <v>636612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
-        <v>487</v>
+        <v>1829</v>
       </c>
       <c r="N16" s="7">
-        <v>352610</v>
+        <v>1248548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D17" s="7">
-        <v>16063</v>
+        <v>44439</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I17" s="7">
-        <v>14491</v>
+        <v>61540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="N17" s="7">
-        <v>30553</v>
+        <v>105979</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,217 +4184,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>268</v>
+        <v>985</v>
       </c>
       <c r="D18" s="7">
-        <v>190681</v>
+        <v>656376</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>261</v>
+        <v>996</v>
       </c>
       <c r="I18" s="7">
-        <v>192483</v>
+        <v>698152</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>529</v>
+        <v>1981</v>
       </c>
       <c r="N18" s="7">
-        <v>383163</v>
+        <v>1354527</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>911</v>
-      </c>
-      <c r="D19" s="7">
-        <v>636612</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="7">
-        <v>918</v>
-      </c>
-      <c r="I19" s="7">
-        <v>611937</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1829</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1248548</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>85</v>
-      </c>
-      <c r="D20" s="7">
-        <v>61540</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H20" s="7">
-        <v>67</v>
-      </c>
-      <c r="I20" s="7">
-        <v>44439</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M20" s="7">
-        <v>152</v>
-      </c>
-      <c r="N20" s="7">
-        <v>105979</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>996</v>
-      </c>
-      <c r="D21" s="7">
-        <v>698152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>985</v>
-      </c>
-      <c r="I21" s="7">
-        <v>656376</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1981</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1354527</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4920,8 +4251,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79532FA2-3C9C-43F0-AAD7-AE0B62FE3001}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608DA682-88C7-4B35-A501-3DF3B9D7F495}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4937,7 +4268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5038,100 +4369,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="D4" s="7">
-        <v>10794</v>
+        <v>103449</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="I4" s="7">
-        <v>15642</v>
+        <v>123076</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="N4" s="7">
-        <v>26435</v>
+        <v>226526</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>636</v>
+        <v>12066</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>1145</v>
+        <v>13681</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="N5" s="7">
-        <v>1782</v>
+        <v>25747</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,153 +4471,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D6" s="7">
-        <v>11430</v>
+        <v>115515</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>136757</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="N6" s="7">
-        <v>28217</v>
+        <v>252273</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="D7" s="7">
-        <v>100624</v>
+        <v>173475</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="I7" s="7">
-        <v>91348</v>
+        <v>221689</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
-        <v>278</v>
+        <v>544</v>
       </c>
       <c r="N7" s="7">
-        <v>191971</v>
+        <v>395163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>11768</v>
+        <v>13423</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I8" s="7">
-        <v>10739</v>
+        <v>26747</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N8" s="7">
-        <v>22507</v>
+        <v>40170</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,153 +4626,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="D9" s="7">
-        <v>112392</v>
+        <v>186898</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="I9" s="7">
-        <v>102087</v>
+        <v>248436</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>310</v>
+        <v>599</v>
       </c>
       <c r="N9" s="7">
-        <v>214478</v>
+        <v>435333</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="D10" s="7">
-        <v>218540</v>
+        <v>168763</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="I10" s="7">
-        <v>175142</v>
+        <v>163020</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
-        <v>544</v>
+        <v>386</v>
       </c>
       <c r="N10" s="7">
-        <v>393681</v>
+        <v>331783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>25167</v>
+        <v>19224</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>221</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>13674</v>
+        <v>20683</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N11" s="7">
-        <v>38842</v>
+        <v>39907</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,153 +4781,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>243707</v>
+        <v>187987</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>188816</v>
+        <v>183703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>599</v>
+        <v>444</v>
       </c>
       <c r="N12" s="7">
-        <v>432523</v>
+        <v>371690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D13" s="7">
-        <v>152221</v>
+        <v>130864</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I13" s="7">
-        <v>146618</v>
+        <v>149306</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="M13" s="7">
         <v>383</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="M13" s="7">
-        <v>386</v>
-      </c>
       <c r="N13" s="7">
-        <v>298839</v>
+        <v>280171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>19436</v>
+        <v>35252</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>336</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I14" s="7">
-        <v>19663</v>
+        <v>28557</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="N14" s="7">
-        <v>39099</v>
+        <v>63808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,153 +4936,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>171657</v>
+        <v>166116</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I15" s="7">
-        <v>166281</v>
+        <v>177863</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N15" s="7">
-        <v>337938</v>
+        <v>343979</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>196</v>
+        <v>804</v>
       </c>
       <c r="D16" s="7">
-        <v>144365</v>
+        <v>576551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
-        <v>187</v>
+        <v>829</v>
       </c>
       <c r="I16" s="7">
-        <v>134007</v>
+        <v>657092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
-        <v>383</v>
+        <v>1633</v>
       </c>
       <c r="N16" s="7">
-        <v>278372</v>
+        <v>1233643</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D17" s="7">
-        <v>27580</v>
+        <v>79965</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="I17" s="7">
-        <v>36040</v>
+        <v>89667</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="N17" s="7">
-        <v>63620</v>
+        <v>169632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,217 +5091,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>233</v>
+        <v>922</v>
       </c>
       <c r="D18" s="7">
-        <v>171945</v>
+        <v>656516</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>236</v>
+        <v>945</v>
       </c>
       <c r="I18" s="7">
-        <v>170047</v>
+        <v>746759</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>469</v>
+        <v>1867</v>
       </c>
       <c r="N18" s="7">
-        <v>341992</v>
+        <v>1403275</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>829</v>
-      </c>
-      <c r="D19" s="7">
-        <v>626543</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H19" s="7">
-        <v>804</v>
-      </c>
-      <c r="I19" s="7">
-        <v>562756</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1633</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1189299</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>116</v>
-      </c>
-      <c r="D20" s="7">
-        <v>84588</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H20" s="7">
-        <v>118</v>
-      </c>
-      <c r="I20" s="7">
-        <v>81261</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="M20" s="7">
-        <v>234</v>
-      </c>
-      <c r="N20" s="7">
-        <v>165849</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>945</v>
-      </c>
-      <c r="D21" s="7">
-        <v>711131</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>922</v>
-      </c>
-      <c r="I21" s="7">
-        <v>644017</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1867</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1355148</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
